--- a/Archevements/New-Robo-Achevement-April.xlsx
+++ b/Archevements/New-Robo-Achevement-April.xlsx
@@ -14,13 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Aporon</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Artemis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リポジトリを作成 by ishihara</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -64,12 +75,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -376,98 +390,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F1048576"/>
+  <dimension ref="B2:H1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="2">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="1">
         <v>44671</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="2">
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="1">
         <v>44672</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="1">
         <v>44673</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="1">
         <v>44674</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="1">
         <v>44675</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="1">
         <v>44676</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="1">
         <v>44677</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="1">
         <v>44678</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="1">
         <v>44679</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="1">
         <v>44680</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="1">
         <v>44681</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
     </row>
     <row r="1048576" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B1048576" s="2"/>
+      <c r="B1048576" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C2:D3"/>
     <mergeCell ref="E2:F3"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Archevements/New-Robo-Achevement-April.xlsx
+++ b/Archevements/New-Robo-Achevement-April.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>Aporon</t>
     <phoneticPr fontId="1"/>
@@ -31,6 +31,13 @@
     <t>リポジトリを作成 by ishihara</t>
     <rPh sb="6" eb="8">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -393,7 +400,7 @@
   <dimension ref="B2:H1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G13" sqref="G13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -430,6 +437,10 @@
       <c r="B4" s="1">
         <v>44671</v>
       </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
@@ -439,51 +450,125 @@
       <c r="B5" s="1">
         <v>44672</v>
       </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>44673</v>
       </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>44674</v>
       </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>44675</v>
       </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <v>44676</v>
       </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>44677</v>
       </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>44678</v>
       </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <v>44679</v>
       </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
         <v>44680</v>
       </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <v>44681</v>
       </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="1"/>
@@ -492,11 +577,43 @@
       <c r="B1048576" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="36">
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C2:D3"/>
     <mergeCell ref="E2:F3"/>
     <mergeCell ref="G2:H3"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
